--- a/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Accel Cable (metal block)/List of materials (metal block).xlsx
+++ b/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Accel Cable (metal block)/List of materials (metal block).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/GitHub/Front-Page/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Accel Cable (metal block)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4F6C9F-EFE5-F44C-998A-00675A0A3436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18159E07-AB38-1048-803B-7A5D52422FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6200" yWindow="1080" windowWidth="25040" windowHeight="14020" xr2:uid="{8AE45093-AB7C-FD44-AC1B-4D008B915CB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="106">
   <si>
     <t>Material</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Isolation</t>
   </si>
   <si>
-    <t>Shrink tube</t>
-  </si>
-  <si>
     <t>KK 254 tip</t>
   </si>
   <si>
@@ -189,12 +186,6 @@
     <t>Cutting heat tube</t>
   </si>
   <si>
-    <t>Metal block</t>
-  </si>
-  <si>
-    <t>Red chip</t>
-  </si>
-  <si>
     <t>Allen wrench</t>
   </si>
   <si>
@@ -286,23 +277,91 @@
   </si>
   <si>
     <t>602-6710-1000-10</t>
+  </si>
+  <si>
+    <t>4.8mm adhesive shrink tube</t>
+  </si>
+  <si>
+    <t>TE Connectivity / Raychem</t>
+  </si>
+  <si>
+    <t>TAT-125-3/16-0-STK</t>
+  </si>
+  <si>
+    <t>650-TAT125316</t>
+  </si>
+  <si>
+    <t>6.4mm in adehsive shrink tube</t>
+  </si>
+  <si>
+    <t>TAT-125-1/4-0-STK</t>
+  </si>
+  <si>
+    <t>650-TAT125014</t>
+  </si>
+  <si>
+    <t>474-SEN-12756</t>
+  </si>
+  <si>
+    <t>SparkFun</t>
+  </si>
+  <si>
+    <t>SEN-12756</t>
+  </si>
+  <si>
+    <t>Accelerometer</t>
+  </si>
+  <si>
+    <t>Accelerometer board</t>
+  </si>
+  <si>
+    <t>Accelerometer housing</t>
+  </si>
+  <si>
+    <t>Minex</t>
+  </si>
+  <si>
+    <t>Aluminum housing</t>
+  </si>
+  <si>
+    <t>Fasteners for housing</t>
+  </si>
+  <si>
+    <t>McMaster</t>
+  </si>
+  <si>
+    <t>92196A076</t>
+  </si>
+  <si>
+    <t>2-56 thread &amp; 3/16'' long Screws</t>
+  </si>
+  <si>
+    <t>20 in</t>
+  </si>
+  <si>
+    <t>21 in</t>
+  </si>
+  <si>
+    <t>22 in</t>
+  </si>
+  <si>
+    <t>23 in</t>
+  </si>
+  <si>
+    <t>24 in</t>
+  </si>
+  <si>
+    <t>13.5 in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -328,6 +387,19 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -351,13 +423,13 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -680,13 +752,13 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G6"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="24.5" customWidth="1"/>
@@ -718,326 +790,417 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>29</v>
+      <c r="A2" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="D3" t="s">
+      <c r="G6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="G7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J3" t="s">
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G7" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="G14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="8" t="s">
+      <c r="J14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="I15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1046,6 +1209,7 @@
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="J10:J11"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Accel Cable (metal block)/List of materials (metal block).xlsx
+++ b/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Accel Cable (metal block)/List of materials (metal block).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/GitHub/Front-Page/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Accel Cable (metal block)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18159E07-AB38-1048-803B-7A5D52422FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4FECFD-2952-B744-B9DC-3B6364C91450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6200" yWindow="1080" windowWidth="25040" windowHeight="14020" xr2:uid="{8AE45093-AB7C-FD44-AC1B-4D008B915CB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="105">
   <si>
     <t>Material</t>
   </si>
@@ -339,19 +339,16 @@
     <t>20 in</t>
   </si>
   <si>
-    <t>21 in</t>
-  </si>
-  <si>
-    <t>22 in</t>
-  </si>
-  <si>
-    <t>23 in</t>
-  </si>
-  <si>
-    <t>24 in</t>
-  </si>
-  <si>
     <t>13.5 in</t>
+  </si>
+  <si>
+    <t>8 in</t>
+  </si>
+  <si>
+    <t>1.5 in</t>
+  </si>
+  <si>
+    <t>1.25 in</t>
   </si>
 </sst>
 </file>
@@ -752,7 +749,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -831,7 +828,7 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>8</v>
@@ -860,7 +857,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>8</v>
@@ -887,7 +884,7 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>8</v>
@@ -914,7 +911,7 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
@@ -942,7 +939,9 @@
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
@@ -970,7 +969,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>65</v>
@@ -998,7 +997,9 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" s="4" t="s">
         <v>57</v>
       </c>
@@ -1025,7 +1026,9 @@
       <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="D10" s="4" t="s">
         <v>82</v>
       </c>
@@ -1052,7 +1055,9 @@
       <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="D11" s="4" t="s">
         <v>82</v>
       </c>

--- a/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Accel Cable (metal block)/List of materials (metal block).xlsx
+++ b/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Accel Cable (metal block)/List of materials (metal block).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/GitHub/Front-Page/Antonio-Feed/Wiring Harnesses/Feed/Control Board to Accel Cable (metal block)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4FECFD-2952-B744-B9DC-3B6364C91450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C759975-D767-3143-8A18-1DAFB108A7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6200" yWindow="1080" windowWidth="25040" windowHeight="14020" xr2:uid="{8AE45093-AB7C-FD44-AC1B-4D008B915CB8}"/>
   </bookViews>
@@ -186,9 +186,6 @@
     <t>Cutting heat tube</t>
   </si>
   <si>
-    <t>Allen wrench</t>
-  </si>
-  <si>
     <t>Attaching ground wire to metal braid &amp; sodering wires to chip</t>
   </si>
   <si>
@@ -349,6 +346,9 @@
   </si>
   <si>
     <t>1.25 in</t>
+  </si>
+  <si>
+    <t>5/64 Allen wrench</t>
   </si>
 </sst>
 </file>
@@ -749,7 +749,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -801,19 +801,19 @@
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
         <v>32</v>
@@ -828,25 +828,25 @@
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" t="s">
         <v>63</v>
-      </c>
-      <c r="J3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -857,19 +857,19 @@
         <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s">
         <v>34</v>
@@ -884,19 +884,19 @@
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s">
         <v>36</v>
@@ -911,19 +911,19 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s">
         <v>38</v>
@@ -940,48 +940,48 @@
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
         <v>59</v>
-      </c>
-      <c r="J7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
         <v>40</v>
@@ -992,25 +992,25 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
         <v>41</v>
@@ -1021,54 +1021,54 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s">
         <v>43</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I11" t="s">
         <v>44</v>
@@ -1135,77 +1135,77 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="J14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="I15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" t="s">
         <v>52</v>
-      </c>
-      <c r="J15" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" s="4">
         <v>4</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="I16" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
